--- a/DB Tables & Fields updated.xlsx
+++ b/DB Tables & Fields updated.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tables" sheetId="1" r:id="rId1"/>
+    <sheet name="Card Tables" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
   <si>
     <t>Table</t>
   </si>
@@ -215,19 +216,94 @@
   </si>
   <si>
     <t>Registration Status</t>
+  </si>
+  <si>
+    <t>Module/Table</t>
+  </si>
+  <si>
+    <t>Column/Field Name</t>
+  </si>
+  <si>
+    <t>Reference Table</t>
+  </si>
+  <si>
+    <t>SQL Queries</t>
+  </si>
+  <si>
+    <t>Credit Card Management</t>
+  </si>
+  <si>
+    <t>Credit Card Number
+Credit Card Type ( Platinum/Gold/ …)
+Credit Card PIN (4 Digit)
+Credit Card Status (Active/Deactive)
+Transaction date From (MM/DD/YYYY)
+Transaction date To (MM/DD/YYYY)
+Transaction Type (Debit / Credit)
+Amount (Rs.)
+Problem Ticket (Alpha numerical)
+Problem Ticket Comments ( Alpha Numercial)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE :
+CREATE TABLE table_CreditCard(CC_Number int, CC_Type varchar(100), CC_PIN int, CC_Status varchar(100), CC_TransactionFromDate DateTime, CC_TransactionToDate DateTime, CC_TransactionType varchar(100), CC_Amount double, CC_PrbTkt varchar(100), CC_PrbTktCmt varchar(255));
+INSERT:
+INSERT INTO Customers (CC_Number, CC_Type, CC_PIN, CC_Status, CC_TransactionFromDate, CC_TransactionToDate, CC_TransactionType, CC_Amount, CC_PrbTkt, CC_PrbTktCmt  )   VALUES ('1234 5678 1234 5678', 'Platinum', '1234', 'Active', '10/10/2020', '10/10/2020', 'Credit' , '1000.00' , 'PRB00001234' , 'None');
+</t>
+  </si>
+  <si>
+    <t>Debit Card Management</t>
+  </si>
+  <si>
+    <t>Debit Card Number
+Debit Card Type (Platinum/Gold/ ..)
+Debit Card PIN (4 Digit)
+Account Number (Bank Account Number mapped to this card)
+Debit Card Status (Active/Deactive)
+Transaction Date From (MM/DD/YYYY)
+Transaction Date To (MM/DD/YYYY)
+Transaction Type(Debit / Credit)
+Amount (Rs)
+Problem Ticket (Alpha numerical)
+Problem Ticket Comments ( Alpha Numercial)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE :
+CREATE TABLE table_DeditCard(DC_Number int, DC_Type varchar(100), DC_PIN int, DC_AccountNumber Int, DC_Status varchar(100), DC_TransactionFromDate DateTime, DC_TransactionToDate DateTime, DC_TransactionType varchar(100), DC_Amount double, DC_PrbTkt varchar(100), DC_PrbTktCmt varchar(255));
+INSERT:
+INSERT INTO Customers (DC_Number, DC_Type, DC_PIN, DC_AccountNumber , DC_Status, DC_TransactionFromDate, DC_TransactionToDate, DC_TransactionType, DC_Amount, DC_PrbTkt, DC_PrbTktCmt  )
+VALUES ('5678 1234 5678 1234', 'Master', '4321', 'Active', '10/10/2020', '10/10/2020', 'Dedit' , '1000.00' , 'PRB00004321' , 'None');
+</t>
+  </si>
+  <si>
+    <t>Bank Representative Operations Management</t>
+  </si>
+  <si>
+    <t>Debit /Credit Card Number
+CardType (Credit/Debit)
+Card Status (Approve / Decline)
+Transaction Date From (MM/DD/YYYY)
+Transaction Date To (MM/DD/YYYY)
+Transaction Type (Debit/Credit)
+Amount (Rs)
+Problem Ticket (Alpha Numerical)
+Problem Ticket Comments ( Alpha Numercial)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CREATE:
+CREATE TABLE table_REPOperations ( Card_Number int, Card_Type varchar (100), Card_Status varchar(100), TransactionFromDate DateTime, TransactionToDate DateTime, TransactionType  varchar(100), Amount double, PrbTkt varchar(100), PrbTktCmt varchar(255));
+INSERT:
+INSERT INTO table_REPOperations (Card_Number, Card_Type, Card_Status, TransactionFromDate, TransactionToDate, TransactionType, Amount, PrbTkt, PrbTktCmt  )
+VALUES ('5678 1234 5678 1234', 'Debit', 'Active', '10/10/2020', '10/10/2020', 'Debit' , '1000.00' , 'PRB00004321' , 'None');
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,158 +327,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,194 +354,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -618,251 +365,37 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -885,58 +418,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1198,40 +699,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="9.57142857142857" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.2857142857143" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.42857142857143" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.4285714285714" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.7142857142857" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.4285714285714" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5714285714286" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.8571428571429" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.2857142857143" style="1" customWidth="1"/>
+    <col min="1" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.28515625" style="1" customWidth="1"/>
     <col min="15" max="15" width="12" style="1" customWidth="1"/>
-    <col min="16" max="21" width="9.14285714285714" style="1"/>
-    <col min="22" max="22" width="11.4285714285714" style="1" customWidth="1"/>
+    <col min="16" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="11.42578125" style="1" customWidth="1"/>
     <col min="23" max="24" width="19" style="1" customWidth="1"/>
-    <col min="25" max="26" width="9.14285714285714" style="1"/>
-    <col min="27" max="28" width="8.42857142857143" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.14285714285714" style="1"/>
+    <col min="25" max="26" width="9.140625" style="1"/>
+    <col min="27" max="28" width="8.42578125" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:33">
+    <row r="1" spans="1:33" ht="25.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="38.25" spans="1:30">
+    <row r="2" spans="1:33" ht="38.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1383,7 +884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="24" customHeight="1" spans="2:23">
+    <row r="3" spans="1:33" ht="24" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1403,10 +904,10 @@
         <v>21</v>
       </c>
       <c r="O3" s="5"/>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="7"/>
+      <c r="R3" s="8"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -1414,7 +915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" ht="25.5" spans="2:23">
+    <row r="4" spans="1:33" ht="25.5">
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1438,7 +939,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" ht="25.5" spans="2:15">
+    <row r="5" spans="1:33" ht="25.5">
       <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
@@ -1459,7 +960,7 @@
       </c>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="1:33">
       <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1480,7 +981,7 @@
       </c>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="1:33">
       <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
@@ -1497,7 +998,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="6:10">
+    <row r="8" spans="1:33">
       <c r="F8" s="1" t="s">
         <v>40</v>
       </c>
@@ -1505,7 +1006,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="6:10">
+    <row r="9" spans="1:33">
       <c r="F9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1513,87 +1014,87 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="6:6">
+    <row r="10" spans="1:33">
       <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="6:6">
+    <row r="11" spans="1:33">
       <c r="F11" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="6:6">
+    <row r="12" spans="1:33">
       <c r="F12" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="6:6">
+    <row r="13" spans="1:33">
       <c r="F13" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="6:6">
+    <row r="14" spans="1:33">
       <c r="F14" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="6:6">
+    <row r="15" spans="1:33">
       <c r="F15" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="6:6">
+    <row r="16" spans="1:33">
       <c r="F16" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="6:6">
+    <row r="17" spans="6:7">
       <c r="F17" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="6:6">
+    <row r="18" spans="6:7">
       <c r="F18" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="6:6">
+    <row r="19" spans="6:7">
       <c r="F19" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="6:6">
+    <row r="20" spans="6:7">
       <c r="F20" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="6:6">
+    <row r="21" spans="6:7">
       <c r="F21" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="6:6">
+    <row r="22" spans="6:7">
       <c r="F22" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="6:6">
+    <row r="23" spans="6:7">
       <c r="F23" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="6:6">
+    <row r="24" spans="6:7">
       <c r="F24" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="6:6">
+    <row r="25" spans="6:7">
       <c r="F25" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" ht="63.75" spans="6:7">
+    <row r="26" spans="6:7" ht="63.75">
       <c r="F26" s="1" t="s">
         <v>58</v>
       </c>
@@ -1601,32 +1102,32 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="6:6">
+    <row r="27" spans="6:7">
       <c r="F27" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="6:6">
+    <row r="28" spans="6:7">
       <c r="F28" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="6:6">
+    <row r="29" spans="6:7">
       <c r="F29" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="6:6">
+    <row r="30" spans="6:7">
       <c r="F30" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="6:6">
+    <row r="31" spans="6:7">
       <c r="F31" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="6:6">
+    <row r="32" spans="6:7">
       <c r="F32" s="1" t="s">
         <v>65</v>
       </c>
@@ -1642,6 +1143,84 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="27" style="10" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="29" style="10" customWidth="1"/>
+    <col min="5" max="5" width="53.85546875" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="240">
+      <c r="B2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="270">
+      <c r="B3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="255">
+      <c r="B4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>